--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,45 +46,57 @@
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>collapse</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
+    <t>falling</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>avoid</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
@@ -94,94 +106,112 @@
     <t>co</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>alert</t>
   </si>
   <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>protect</t>
@@ -545,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,16 +665,16 @@
         <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -664,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.815068493150685</v>
+        <v>0.7945205479452054</v>
       </c>
       <c r="C4">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D4">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -682,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -714,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8055555555555556</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -735,7 +765,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K5">
         <v>0.9083333333333333</v>
@@ -764,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.75</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -814,13 +844,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -835,16 +865,16 @@
         <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>0.8611111111111112</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -864,13 +894,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7297297297297297</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -882,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K8">
-        <v>0.8484848484848485</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>308</v>
       </c>
       <c r="M8">
-        <v>28</v>
+        <v>308</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -906,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -914,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6666666666666666</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -932,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K9">
-        <v>0.8328981723237598</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L9">
-        <v>319</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>319</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -956,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>64</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -964,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5932203389830508</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C10">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -982,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K10">
-        <v>0.8275862068965517</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L10">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1014,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5555555555555556</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D11">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1032,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="K11">
-        <v>0.8113207547169812</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="L11">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1056,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5193798449612403</v>
+        <v>0.5423728813559322</v>
       </c>
       <c r="C12">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="D12">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1082,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>0.8076923076923077</v>
+        <v>0.78125</v>
       </c>
       <c r="L12">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="M12">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1106,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,16 +1165,16 @@
         <v>25</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>0.7890625</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L13">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="M13">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1156,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1164,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4765100671140939</v>
+        <v>0.501937984496124</v>
       </c>
       <c r="C14">
-        <v>71</v>
+        <v>259</v>
       </c>
       <c r="D14">
-        <v>71</v>
+        <v>259</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1182,31 +1212,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>78</v>
+        <v>257</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K14">
-        <v>0.7872340425531915</v>
+        <v>0.76875</v>
       </c>
       <c r="L14">
+        <v>123</v>
+      </c>
+      <c r="M14">
+        <v>123</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>37</v>
-      </c>
-      <c r="M14">
-        <v>37</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1214,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1232,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K15">
-        <v>0.78125</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L15">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="M15">
-        <v>125</v>
+        <v>63</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1256,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1264,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.36</v>
+        <v>0.4832214765100671</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="D16">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1282,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.7804878048780488</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L16">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="M16">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1306,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1314,13 +1344,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2341269841269841</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C17">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="D17">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1332,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>193</v>
+        <v>43</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K17">
-        <v>0.7605633802816901</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="L17">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1356,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>34</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1364,13 +1394,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1394101876675603</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C18">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="D18">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1382,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>321</v>
+        <v>36</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K18">
-        <v>0.7291666666666666</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L18">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="M18">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1406,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1414,13 +1444,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.08</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C19">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1432,19 +1462,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>276</v>
+        <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.7358490566037735</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1456,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1464,193 +1494,313 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.008056719303899453</v>
+        <v>0.25</v>
       </c>
       <c r="C20">
+        <v>63</v>
+      </c>
+      <c r="D20">
+        <v>63</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>189</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L20">
+        <v>34</v>
+      </c>
+      <c r="M20">
+        <v>34</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.2467532467532468</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21">
+        <v>19</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>58</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21">
+        <v>0.6976744186046512</v>
+      </c>
+      <c r="L21">
+        <v>30</v>
+      </c>
+      <c r="M21">
+        <v>30</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.1662198391420912</v>
+      </c>
+      <c r="C22">
+        <v>62</v>
+      </c>
+      <c r="D22">
+        <v>62</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>311</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K22">
+        <v>0.6944444444444444</v>
+      </c>
+      <c r="L22">
         <v>25</v>
       </c>
-      <c r="D20">
+      <c r="M22">
+        <v>25</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.06333333333333334</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="D23">
+        <v>19</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>281</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23">
+        <v>0.6825396825396826</v>
+      </c>
+      <c r="L23">
+        <v>43</v>
+      </c>
+      <c r="M23">
+        <v>43</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E20">
-        <v>0.14</v>
-      </c>
-      <c r="F20">
-        <v>0.86</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>3078</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20">
-        <v>0.6825396825396826</v>
-      </c>
-      <c r="L20">
-        <v>43</v>
-      </c>
-      <c r="M20">
-        <v>43</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="J21" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21">
-        <v>0.6744186046511628</v>
-      </c>
-      <c r="L21">
-        <v>29</v>
-      </c>
-      <c r="M21">
-        <v>29</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
+      <c r="B24">
+        <v>0.01095360824742268</v>
+      </c>
+      <c r="C24">
+        <v>34</v>
+      </c>
+      <c r="D24">
+        <v>37</v>
+      </c>
+      <c r="E24">
+        <v>0.08</v>
+      </c>
+      <c r="F24">
+        <v>0.92</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>3070</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24">
+        <v>0.6617647058823529</v>
+      </c>
+      <c r="L24">
+        <v>225</v>
+      </c>
+      <c r="M24">
+        <v>225</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.008890968647636874</v>
+      </c>
+      <c r="C25">
+        <v>19</v>
+      </c>
+      <c r="D25">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>0.24</v>
+      </c>
+      <c r="F25">
+        <v>0.76</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>2118</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K25">
+        <v>0.65</v>
+      </c>
+      <c r="L25">
+        <v>26</v>
+      </c>
+      <c r="M25">
+        <v>26</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="J22" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K22">
-        <v>0.6352941176470588</v>
-      </c>
-      <c r="L22">
-        <v>216</v>
-      </c>
-      <c r="M22">
-        <v>216</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="J23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K23">
-        <v>0.6</v>
-      </c>
-      <c r="L23">
-        <v>39</v>
-      </c>
-      <c r="M23">
-        <v>39</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24">
-        <v>0.6</v>
-      </c>
-      <c r="L24">
-        <v>30</v>
-      </c>
-      <c r="M24">
-        <v>30</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25">
-        <v>0.5952380952380952</v>
-      </c>
-      <c r="L25">
-        <v>175</v>
-      </c>
-      <c r="M25">
-        <v>176</v>
-      </c>
-      <c r="N25">
-        <v>0.99</v>
-      </c>
-      <c r="O25">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P25" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="K26">
-        <v>0.5714285714285714</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1662,21 +1812,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="K27">
-        <v>0.5638297872340425</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L27">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="M27">
-        <v>53</v>
+        <v>143</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1688,47 +1838,47 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>41</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="K28">
-        <v>0.5606694560669456</v>
+        <v>0.5782312925170068</v>
       </c>
       <c r="L28">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="M28">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P28" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K29">
+        <v>0.5638297872340425</v>
+      </c>
+      <c r="L29">
         <v>53</v>
       </c>
-      <c r="K29">
-        <v>0.5285714285714286</v>
-      </c>
-      <c r="L29">
-        <v>37</v>
-      </c>
       <c r="M29">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1740,21 +1890,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L30">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M30">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1766,21 +1916,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K31">
-        <v>0.4943820224719101</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L31">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="M31">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1792,21 +1942,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="K32">
-        <v>0.273972602739726</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L32">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1818,33 +1968,163 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="K33">
-        <v>0.2435897435897436</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L33">
+        <v>20</v>
+      </c>
+      <c r="M33">
+        <v>20</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34">
+        <v>0.4606741573033708</v>
+      </c>
+      <c r="L34">
+        <v>41</v>
+      </c>
+      <c r="M34">
+        <v>41</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K35">
+        <v>0.4313725490196079</v>
+      </c>
+      <c r="L35">
+        <v>22</v>
+      </c>
+      <c r="M35">
+        <v>22</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K36">
+        <v>0.4222222222222222</v>
+      </c>
+      <c r="L36">
         <v>19</v>
       </c>
-      <c r="M33">
+      <c r="M36">
         <v>19</v>
       </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>59</v>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K37">
+        <v>0.3561643835616438</v>
+      </c>
+      <c r="L37">
+        <v>26</v>
+      </c>
+      <c r="M37">
+        <v>26</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="L38">
+        <v>20</v>
+      </c>
+      <c r="M38">
+        <v>20</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
